--- a/templates/AutomationOrg/RSTK-9518-Rework Work Order.xlsx
+++ b/templates/AutomationOrg/RSTK-9518-Rework Work Order.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\provar\rsqasampleproj\rsqasampleproj\templates\QA-Automation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\provar\rsqasampleproj\rsqasampleproj\templates\AutomationOrg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DE64E0C-6D1B-4E38-BCAF-60F54C02289E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EE44FF7-9AE6-4036-9959-8EA84D518317}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Create WO" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="81">
   <si>
     <t>Site</t>
   </si>
@@ -619,10 +619,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -678,42 +678,13 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C2">
         <v>5</v>
       </c>
+      <c r="D2" s="3"/>
       <c r="G2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C3">
-        <v>5</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="G3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C4">
-        <v>5</v>
-      </c>
-      <c r="D4" s="3"/>
-      <c r="G4" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1498,7 +1469,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52F4B46C-917D-4769-9EED-CC4369AB85E4}">
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
